--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPSTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>E.2.00.---24.200520.CAR01A10</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1319,16 +1322,28 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="54">
+        <v>44735</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051238238</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="s">
+        <v>61</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
@@ -3345,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3782,12 +3797,20 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="54">
+        <v>44735</v>
+      </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183033873568</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1"/>
@@ -3811,12 +3834,20 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>44735</v>
+      </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183038052739</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="58"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
@@ -3840,12 +3871,20 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>44735</v>
+      </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868183038030131</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" s="58"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
@@ -3871,17 +3910,31 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54">
+        <v>44735</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868183037840142</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
+      <c r="K13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>72</v>
+      </c>
       <c r="M13" s="39"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5721,7 +5774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPSTayNinh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -319,6 +319,33 @@
   </si>
   <si>
     <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180615</t>
+  </si>
+  <si>
+    <t>device.vnetgps.com,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NCFW, LK</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng chân nguồn</t>
   </si>
 </sst>
 </file>
@@ -697,6 +724,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,30 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,43 +1108,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1162,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,7 +1337,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1353,7 +1380,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1382,7 +1409,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1438,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1440,7 +1467,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1496,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +1525,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1529,7 +1556,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1558,7 +1585,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1587,7 +1614,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1643,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3332,13 +3359,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3350,6 +3370,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3360,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3393,43 +3420,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3474,58 +3501,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -3550,23 +3577,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,7 +3647,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3677,7 +3704,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3732,7 +3759,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3777,17 +3804,17 @@
         <v>64</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3812,19 +3839,37 @@
         <v>63</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3849,19 +3894,35 @@
         <v>63</v>
       </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3887,7 +3948,9 @@
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
@@ -3898,7 +3961,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3935,15 +3998,25 @@
       <c r="L13" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3972,7 +4045,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4001,7 +4074,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4030,7 +4103,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4180,7 +4253,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4212,7 +4285,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4489,7 +4562,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4585,7 +4658,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -4617,7 +4690,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4681,7 +4754,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5746,13 +5819,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5764,6 +5830,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5807,43 +5880,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5888,58 +5961,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -5964,23 +6037,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,7 +6105,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6087,7 +6160,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6142,7 +6215,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6201,7 +6274,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6256,7 +6329,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6311,7 +6384,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6370,7 +6443,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6401,7 +6474,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6430,7 +6503,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6459,7 +6532,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6488,7 +6561,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8204,13 +8277,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8222,6 +8288,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8265,43 +8338,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8346,58 +8419,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8422,23 +8495,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="61"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,7 +8537,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8495,7 +8568,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8524,7 +8597,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8553,7 +8626,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8582,7 +8655,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8611,7 +8684,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8640,7 +8713,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8671,7 +8744,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8700,7 +8773,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8729,7 +8802,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8758,7 +8831,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9989,6 +10062,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10000,13 +10080,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPSTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -724,30 +724,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,6 +741,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1108,43 +1108,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1352,7 +1352,9 @@
       <c r="B7" s="54">
         <v>44735</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44743</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>56</v>
       </c>
@@ -1372,15 +1374,25 @@
         <v>61</v>
       </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1421,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1467,7 +1479,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1508,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1537,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1556,7 +1568,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1585,7 +1597,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1614,7 +1626,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1655,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1773,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2230,7 +2242,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2294,7 +2306,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3359,6 +3371,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3370,13 +3389,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3387,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3420,43 +3432,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3501,58 +3513,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -3577,23 +3589,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3659,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3704,7 +3716,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3759,7 +3771,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +3826,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3827,7 +3839,9 @@
       <c r="B10" s="54">
         <v>44735</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44743</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -3869,7 +3883,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3882,7 +3896,9 @@
       <c r="B11" s="54">
         <v>44735</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44743</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -3922,7 +3938,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3935,7 +3951,9 @@
       <c r="B12" s="54">
         <v>44735</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44743</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -3947,21 +3965,37 @@
         <v>63</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3976,7 +4010,9 @@
       <c r="B13" s="54">
         <v>44735</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44743</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -4016,7 +4052,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4045,7 +4081,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4074,7 +4110,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4139,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4285,7 +4321,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4562,7 +4598,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4690,7 +4726,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4754,7 +4790,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5819,6 +5855,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5830,13 +5873,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5880,43 +5916,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5961,58 +5997,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -6037,23 +6073,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6105,7 +6141,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6160,7 +6196,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6215,7 +6251,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6274,7 +6310,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6329,7 +6365,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6384,7 +6420,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6443,7 +6479,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6474,7 +6510,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6503,7 +6539,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6532,7 +6568,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6561,7 +6597,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8277,6 +8313,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8288,13 +8331,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8338,43 +8374,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8419,58 +8455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8495,23 +8531,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="68"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8537,7 +8573,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8568,7 +8604,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8597,7 +8633,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8626,7 +8662,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8655,7 +8691,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8684,7 +8720,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8713,7 +8749,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8744,7 +8780,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8773,7 +8809,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8802,7 +8838,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8831,7 +8867,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10062,13 +10098,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10080,6 +10109,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
